--- a/data_clean/pesticide_consumption.xlsx
+++ b/data_clean/pesticide_consumption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kushraimalani/Documents/Northeastern/DS4200/project-mack-kyra-kush-kevin/data_clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyrariedel/Desktop/DS4200/project-mack-kyra-kush-kevin/data_clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5956887A-39B4-E54C-A53E-DBCF714F655B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B433AB9C-57C7-8244-B4F3-1A77F782F3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table16" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General;[Red]\-General"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -249,26 +249,26 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -583,7 +583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -596,9 +596,9 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2:IV3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.7109375" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="16384" width="9.6640625" style="2"/>
+    <col min="1" max="16384" width="9.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="14" customHeight="1">
